--- a/SCBAA/2020/Region 1.xlsx
+++ b/SCBAA/2020/Region 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF31331-992B-433A-9E0B-0924FA56A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92828EC2-17ED-4B94-BE04-6436D784992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="240" windowWidth="14625" windowHeight="12540" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="3" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Batac" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -264,7 +271,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +396,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -493,7 +506,7 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -621,6 +634,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -947,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
@@ -8081,8 +8101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D7A3D-B3DF-4DA0-970B-3BCA4A9154E6}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" activeCellId="14" sqref="E11:E13 E16:E18 E21:E22 E24:E27 E29:E31 E33:E36 E42:E44 E46:E48 E50:E52 E54:E56 E58:E61 E62:E64 E66:E68 E70:E92 E96:E110"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8205,7 +8225,9 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -8214,7 +8236,9 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -8223,7 +8247,9 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -8233,7 +8259,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
+        <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
     </row>
@@ -8253,7 +8279,9 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -8262,7 +8290,9 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="47"/>
+      <c r="E17" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -8271,7 +8301,9 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="47"/>
+      <c r="E18" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -8281,7 +8313,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -8301,7 +8333,9 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -8310,7 +8344,9 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -8319,7 +8355,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -8328,7 +8364,9 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -8337,7 +8375,9 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -8346,7 +8386,9 @@
       <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -8355,7 +8397,9 @@
       <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="36"/>
+      <c r="E27" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -8373,7 +8417,9 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="47"/>
+      <c r="E29" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -8382,7 +8428,9 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="47"/>
+      <c r="E30" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -8391,7 +8439,9 @@
         <v>40</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="35"/>
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -8409,7 +8459,9 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45"/>
+      <c r="E33" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -8418,7 +8470,9 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -8427,7 +8481,9 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -8436,7 +8492,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="45"/>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -8491,7 +8549,9 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="47"/>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -8500,7 +8560,9 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="47"/>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -8509,7 +8571,9 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="47"/>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -8518,7 +8582,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -8527,7 +8591,9 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="47"/>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -8536,7 +8602,9 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="47"/>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -8545,7 +8613,9 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="47"/>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -8563,7 +8633,9 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="47"/>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -8572,7 +8644,9 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -8581,7 +8655,9 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="47"/>
+      <c r="E52" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -8599,7 +8675,9 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="43"/>
+      <c r="E54" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -8608,7 +8686,9 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="43"/>
+      <c r="E55" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -8617,7 +8697,9 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -8626,7 +8708,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -8635,7 +8717,9 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="43"/>
+      <c r="E58" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -8644,7 +8728,9 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="45"/>
+      <c r="E59" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -8653,7 +8739,9 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="43"/>
+      <c r="E60" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -8671,7 +8759,9 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="47"/>
+      <c r="E62" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -8680,7 +8770,9 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="47"/>
+      <c r="E63" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -8689,7 +8781,9 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="47"/>
+      <c r="E64" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -8698,7 +8792,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="44"/>
+      <c r="E65" s="18"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -8707,7 +8801,9 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="47"/>
+      <c r="E66" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -8716,7 +8812,9 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="47"/>
+      <c r="E67" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -8725,7 +8823,9 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="47"/>
+      <c r="E68" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -8734,7 +8834,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="44"/>
+      <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
@@ -8743,7 +8843,9 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -8752,7 +8854,9 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="23"/>
+      <c r="E71" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -8761,7 +8865,9 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="28"/>
+      <c r="E72" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -8788,7 +8894,9 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="48"/>
+      <c r="E75" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -8797,7 +8905,9 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="45"/>
+      <c r="E76" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -8806,7 +8916,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="23"/>
+      <c r="E77" s="56"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -8815,7 +8925,9 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="47"/>
+      <c r="E78" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -8824,7 +8936,9 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="47"/>
+      <c r="E79" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -8833,7 +8947,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="22"/>
+      <c r="E80" s="55"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8842,7 +8956,9 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="45"/>
+      <c r="E81" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
@@ -8851,7 +8967,9 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="47"/>
+      <c r="E82" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -8869,7 +8987,9 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="44"/>
+      <c r="E84" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -8878,7 +8998,9 @@
       <c r="D85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E85" s="44"/>
+      <c r="E85" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -8896,7 +9018,9 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="45"/>
+      <c r="E87" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -8905,7 +9029,9 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="44"/>
+      <c r="E88" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -8923,7 +9049,9 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="45"/>
+      <c r="E90" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -8932,7 +9060,9 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="45"/>
+      <c r="E91" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -8941,7 +9071,9 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="45"/>
+      <c r="E92" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
@@ -8980,7 +9112,9 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="47"/>
+      <c r="E96" s="18">
+        <v>0</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="8"/>
       <c r="I96" s="9"/>
@@ -9004,7 +9138,9 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="43"/>
+      <c r="E98" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
@@ -9020,7 +9156,9 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="43"/>
+      <c r="E100" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
@@ -9036,7 +9174,9 @@
       <c r="D102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="43"/>
+      <c r="E102" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
@@ -9052,7 +9192,9 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="43"/>
+      <c r="E104" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
@@ -9068,7 +9210,9 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="43"/>
+      <c r="E106" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
@@ -9084,7 +9228,9 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="43"/>
+      <c r="E108" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
@@ -9101,7 +9247,9 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="47"/>
+      <c r="E110" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
